--- a/public/assets/result/Latifah_4.xlsx
+++ b/public/assets/result/Latifah_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -148,13 +148,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ATMUJI</t>
+    <t>LATIFAH</t>
   </si>
 </sst>
 </file>
@@ -907,16 +904,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="K13" s="5">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L13" s="5">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -944,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="I14" s="5">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="K14" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L14" s="5">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -981,19 +978,19 @@
         <v>30</v>
       </c>
       <c r="I15" s="5">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J15" s="5">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="K15" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L15" s="5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15"/>
     </row>
@@ -1055,16 +1052,16 @@
         <v>24</v>
       </c>
       <c r="I17" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J17" s="5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K17" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L17" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1129,16 +1126,16 @@
         <v>35</v>
       </c>
       <c r="I19" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J19" s="5">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K19" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L19" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1166,16 +1163,16 @@
         <v>35</v>
       </c>
       <c r="I20" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="K20" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L20" s="5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1203,19 +1200,19 @@
         <v>24</v>
       </c>
       <c r="I21" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21"/>
     </row>
@@ -1264,9 +1261,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="K27" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="N27" s="1"/>
     </row>
@@ -1282,10 +1277,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="D30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L30" s="4"/>
       <c r="N30" s="1"/>
